--- a/owl_raw_keep_update_0910v3.xlsx
+++ b/owl_raw_keep_update_0910v3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3eb0b9b9fe2a9f57/DailyWork/2022/08 owl解说/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_C81A3CD53D212E803B1A446E897BE13D512F5523" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F010A709-2AEC-4C55-9EC6-99EA0FB23BED}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_C81A3CD53D212E803B1A446E897BE13D512F5523" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4AF8F043-853C-4540-81DD-3BDB2F009F16}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2995,9 +2995,6 @@
     <t>4</t>
   </si>
   <si>
-    <t>杨小龙</t>
-  </si>
-  <si>
     <t>时光</t>
   </si>
   <si>
@@ -3056,6 +3053,9 @@
   <si>
     <t>九朵</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳小龙</t>
   </si>
 </sst>
 </file>
@@ -3483,8 +3483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
@@ -3664,10 +3664,10 @@
         <v>3</v>
       </c>
       <c r="AJ2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AK2" t="s">
         <v>1008</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
@@ -3732,10 +3732,10 @@
         <v>3</v>
       </c>
       <c r="AJ3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AK3" t="s">
         <v>1008</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>1009</v>
       </c>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
@@ -3809,10 +3809,10 @@
         <v>4</v>
       </c>
       <c r="AJ4" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
       <c r="AK4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
@@ -3877,10 +3877,10 @@
         <v>3</v>
       </c>
       <c r="AJ5" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
       <c r="AK5" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -3957,10 +3957,10 @@
         <v>4</v>
       </c>
       <c r="AJ6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK6" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="7" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -4037,10 +4037,10 @@
         <v>4</v>
       </c>
       <c r="AJ7" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK7" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="8" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -4126,10 +4126,10 @@
         <v>5</v>
       </c>
       <c r="AJ8" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="AK8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -4197,10 +4197,10 @@
         <v>3</v>
       </c>
       <c r="AJ9" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK9" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="10" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -4268,10 +4268,10 @@
         <v>3</v>
       </c>
       <c r="AJ10" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK10" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="11" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -4348,10 +4348,10 @@
         <v>4</v>
       </c>
       <c r="AJ11" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK11" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="12" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -4428,10 +4428,10 @@
         <v>4</v>
       </c>
       <c r="AJ12" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK12" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="13" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -4517,10 +4517,10 @@
         <v>5</v>
       </c>
       <c r="AJ13" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK13" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="14" spans="1:37" x14ac:dyDescent="0.3">
@@ -4582,10 +4582,10 @@
         <v>3</v>
       </c>
       <c r="AJ14" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK14" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="15" spans="1:37" x14ac:dyDescent="0.3">
@@ -4656,10 +4656,10 @@
         <v>4</v>
       </c>
       <c r="AJ15" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK15" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
@@ -4721,10 +4721,10 @@
         <v>3</v>
       </c>
       <c r="AJ16" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK16" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.3">
@@ -4795,10 +4795,10 @@
         <v>4</v>
       </c>
       <c r="AJ17" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK17" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.3">
@@ -4878,10 +4878,10 @@
         <v>5</v>
       </c>
       <c r="AJ18" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AK18" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
@@ -4943,10 +4943,10 @@
         <v>3</v>
       </c>
       <c r="AJ19" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK19" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.3">
@@ -5008,10 +5008,10 @@
         <v>3</v>
       </c>
       <c r="AJ20" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK20" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.3">
@@ -5091,10 +5091,10 @@
         <v>5</v>
       </c>
       <c r="AJ21" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK21" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.3">
@@ -5174,10 +5174,10 @@
         <v>5</v>
       </c>
       <c r="AJ22" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK22" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
@@ -5248,10 +5248,10 @@
         <v>4</v>
       </c>
       <c r="AJ23" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK23" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.3">
@@ -5322,10 +5322,10 @@
         <v>4</v>
       </c>
       <c r="AJ24" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AK24" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.3">
@@ -5396,10 +5396,10 @@
         <v>4</v>
       </c>
       <c r="AJ25" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK25" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="26" spans="1:37" x14ac:dyDescent="0.3">
@@ -5461,10 +5461,10 @@
         <v>3</v>
       </c>
       <c r="AJ26" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK26" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="27" spans="1:37" x14ac:dyDescent="0.3">
@@ -5526,10 +5526,10 @@
         <v>3</v>
       </c>
       <c r="AJ27" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK27" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.3">
@@ -5591,10 +5591,10 @@
         <v>3</v>
       </c>
       <c r="AJ28" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK28" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:37" x14ac:dyDescent="0.3">
@@ -5668,10 +5668,10 @@
         <v>4</v>
       </c>
       <c r="AJ29" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AK29" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:37" x14ac:dyDescent="0.3">
@@ -5754,10 +5754,10 @@
         <v>5</v>
       </c>
       <c r="AJ30" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK30" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:37" x14ac:dyDescent="0.3">
@@ -5846,10 +5846,10 @@
         <v>5</v>
       </c>
       <c r="AJ31" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK31" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="32" spans="1:37" x14ac:dyDescent="0.3">
@@ -5920,10 +5920,10 @@
         <v>3</v>
       </c>
       <c r="AJ32" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK32" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="33" spans="1:37" x14ac:dyDescent="0.3">
@@ -6012,10 +6012,10 @@
         <v>5</v>
       </c>
       <c r="AJ33" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK33" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="34" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -6089,10 +6089,10 @@
         <v>3</v>
       </c>
       <c r="AJ34" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AK34" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="35" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -6166,10 +6166,10 @@
         <v>3</v>
       </c>
       <c r="AJ35" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK35" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="36" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -6243,10 +6243,10 @@
         <v>3</v>
       </c>
       <c r="AJ36" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK36" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="37" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -6329,10 +6329,10 @@
         <v>4</v>
       </c>
       <c r="AJ37" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AK37" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="38" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -6415,10 +6415,10 @@
         <v>4</v>
       </c>
       <c r="AJ38" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK38" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="39" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -6492,10 +6492,10 @@
         <v>3</v>
       </c>
       <c r="AJ39" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK39" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="40" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -6587,10 +6587,10 @@
         <v>5</v>
       </c>
       <c r="AJ40" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
       <c r="AK40" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="41" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -6664,10 +6664,10 @@
         <v>3</v>
       </c>
       <c r="AJ41" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK41" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="42" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -6750,10 +6750,10 @@
         <v>4</v>
       </c>
       <c r="AJ42" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK42" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="43" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -6827,10 +6827,10 @@
         <v>3</v>
       </c>
       <c r="AJ43" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK43" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="44" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -6913,10 +6913,10 @@
         <v>4</v>
       </c>
       <c r="AJ44" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK44" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="45" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -6999,10 +6999,10 @@
         <v>4</v>
       </c>
       <c r="AJ45" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AK45" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="46" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -7076,10 +7076,10 @@
         <v>3</v>
       </c>
       <c r="AJ46" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK46" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="47" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -7162,10 +7162,10 @@
         <v>4</v>
       </c>
       <c r="AJ47" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK47" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="48" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -7239,10 +7239,10 @@
         <v>3</v>
       </c>
       <c r="AJ48" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK48" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="49" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -7334,10 +7334,10 @@
         <v>5</v>
       </c>
       <c r="AJ49" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK49" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="50" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -7411,10 +7411,10 @@
         <v>3</v>
       </c>
       <c r="AJ50" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AK50" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="51" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -7497,10 +7497,10 @@
         <v>4</v>
       </c>
       <c r="AJ51" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK51" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="52" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -7574,10 +7574,10 @@
         <v>3</v>
       </c>
       <c r="AJ52" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK52" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="53" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -7669,10 +7669,10 @@
         <v>5</v>
       </c>
       <c r="AJ53" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="AK53" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="54" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -7746,10 +7746,10 @@
         <v>3</v>
       </c>
       <c r="AJ54" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK54" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="55" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -7823,10 +7823,10 @@
         <v>3</v>
       </c>
       <c r="AJ55" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK55" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="56" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -7909,10 +7909,10 @@
         <v>4</v>
       </c>
       <c r="AJ56" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AK56" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="57" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -7986,10 +7986,10 @@
         <v>3</v>
       </c>
       <c r="AJ57" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AK57" t="s">
         <v>991</v>
-      </c>
-      <c r="AK57" t="s">
-        <v>992</v>
       </c>
     </row>
     <row r="58" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -8063,10 +8063,10 @@
         <v>3</v>
       </c>
       <c r="AJ58" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="AK58" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="59" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -8140,10 +8140,10 @@
         <v>3</v>
       </c>
       <c r="AJ59" t="s">
+        <v>991</v>
+      </c>
+      <c r="AK59" t="s">
         <v>992</v>
-      </c>
-      <c r="AK59" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="60" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -8217,10 +8217,10 @@
         <v>3</v>
       </c>
       <c r="AJ60" t="s">
+        <v>991</v>
+      </c>
+      <c r="AK60" t="s">
         <v>992</v>
-      </c>
-      <c r="AK60" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="61" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -8303,10 +8303,10 @@
         <v>4</v>
       </c>
       <c r="AJ61" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
       <c r="AK61" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -8389,10 +8389,10 @@
         <v>4</v>
       </c>
       <c r="AJ62" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
       <c r="AK62" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="63" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -8466,10 +8466,10 @@
         <v>3</v>
       </c>
       <c r="AJ63" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK63" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="64" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -8543,10 +8543,10 @@
         <v>3</v>
       </c>
       <c r="AJ64" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK64" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="65" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -8638,10 +8638,10 @@
         <v>5</v>
       </c>
       <c r="AJ65" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AK65" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="66" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -8715,10 +8715,10 @@
         <v>3</v>
       </c>
       <c r="AJ66" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK66" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="67" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -8792,10 +8792,10 @@
         <v>3</v>
       </c>
       <c r="AJ67" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK67" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="68" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -8887,10 +8887,10 @@
         <v>5</v>
       </c>
       <c r="AJ68" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK68" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="69" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -8982,10 +8982,10 @@
         <v>5</v>
       </c>
       <c r="AJ69" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK69" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="70" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -9068,10 +9068,10 @@
         <v>4</v>
       </c>
       <c r="AJ70" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK70" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="71" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -9163,10 +9163,10 @@
         <v>5</v>
       </c>
       <c r="AJ71" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
       <c r="AK71" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="72" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -9258,10 +9258,10 @@
         <v>5</v>
       </c>
       <c r="AJ72" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK72" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="73" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -9344,10 +9344,10 @@
         <v>4</v>
       </c>
       <c r="AJ73" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK73" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="74" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -9448,10 +9448,10 @@
         <v>6</v>
       </c>
       <c r="AJ74" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK74" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="75" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -9534,10 +9534,10 @@
         <v>4</v>
       </c>
       <c r="AJ75" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK75" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="76" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -9620,10 +9620,10 @@
         <v>4</v>
       </c>
       <c r="AJ76" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK76" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="77" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -9715,10 +9715,10 @@
         <v>5</v>
       </c>
       <c r="AJ77" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK77" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="78" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -9810,10 +9810,10 @@
         <v>5</v>
       </c>
       <c r="AJ78" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK78" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="79" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -9896,10 +9896,10 @@
         <v>4</v>
       </c>
       <c r="AJ79" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK79" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="80" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -9973,10 +9973,10 @@
         <v>3</v>
       </c>
       <c r="AJ80" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK80" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="81" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -10068,10 +10068,10 @@
         <v>5</v>
       </c>
       <c r="AJ81" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK81" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="82" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -10163,10 +10163,10 @@
         <v>5</v>
       </c>
       <c r="AJ82" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK82" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="83" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -10249,10 +10249,10 @@
         <v>4</v>
       </c>
       <c r="AJ83" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK83" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="84" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -10344,10 +10344,10 @@
         <v>5</v>
       </c>
       <c r="AJ84" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK84" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="85" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -10430,10 +10430,10 @@
         <v>4</v>
       </c>
       <c r="AJ85" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK85" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="86" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -10525,10 +10525,10 @@
         <v>5</v>
       </c>
       <c r="AJ86" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK86" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="87" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -10620,10 +10620,10 @@
         <v>5</v>
       </c>
       <c r="AJ87" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK87" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="88" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -10697,10 +10697,10 @@
         <v>3</v>
       </c>
       <c r="AJ88" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK88" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="89" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -10774,10 +10774,10 @@
         <v>3</v>
       </c>
       <c r="AJ89" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK89" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="90" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -10860,10 +10860,10 @@
         <v>4</v>
       </c>
       <c r="AJ90" t="s">
+        <v>991</v>
+      </c>
+      <c r="AK90" t="s">
         <v>992</v>
-      </c>
-      <c r="AK90" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="91" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -10946,10 +10946,10 @@
         <v>4</v>
       </c>
       <c r="AJ91" t="s">
+        <v>991</v>
+      </c>
+      <c r="AK91" t="s">
         <v>992</v>
-      </c>
-      <c r="AK91" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="92" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -11032,10 +11032,10 @@
         <v>4</v>
       </c>
       <c r="AJ92" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK92" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="93" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -11109,10 +11109,10 @@
         <v>3</v>
       </c>
       <c r="AJ93" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK93" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="94" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -11186,10 +11186,10 @@
         <v>3</v>
       </c>
       <c r="AJ94" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK94" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="95" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -11272,10 +11272,10 @@
         <v>4</v>
       </c>
       <c r="AJ95" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK95" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="96" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -11352,10 +11352,10 @@
         <v>4</v>
       </c>
       <c r="AJ96" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK96" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="97" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -11432,10 +11432,10 @@
         <v>4</v>
       </c>
       <c r="AJ97" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK97" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="98" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -11518,10 +11518,10 @@
         <v>4</v>
       </c>
       <c r="AJ98" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK98" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="99" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -11604,10 +11604,10 @@
         <v>4</v>
       </c>
       <c r="AJ99" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK99" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="100" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -11681,10 +11681,10 @@
         <v>3</v>
       </c>
       <c r="AJ100" t="s">
+        <v>999</v>
+      </c>
+      <c r="AK100" t="s">
         <v>1000</v>
-      </c>
-      <c r="AK100" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="101" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -11776,10 +11776,10 @@
         <v>5</v>
       </c>
       <c r="AJ101" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK101" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="102" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -11871,10 +11871,10 @@
         <v>5</v>
       </c>
       <c r="AJ102" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK102" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="103" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -11948,10 +11948,10 @@
         <v>3</v>
       </c>
       <c r="AJ103" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK103" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="104" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -12025,10 +12025,10 @@
         <v>3</v>
       </c>
       <c r="AJ104" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK104" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="105" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -12099,10 +12099,10 @@
         <v>3</v>
       </c>
       <c r="AJ105" t="s">
+        <v>992</v>
+      </c>
+      <c r="AK105" t="s">
         <v>993</v>
-      </c>
-      <c r="AK105" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="106" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -12176,10 +12176,10 @@
         <v>3</v>
       </c>
       <c r="AJ106" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AK106" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="107" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -12262,10 +12262,10 @@
         <v>4</v>
       </c>
       <c r="AJ107" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AK107" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="108" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -12357,10 +12357,10 @@
         <v>5</v>
       </c>
       <c r="AJ108" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AK108" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="109" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -12443,10 +12443,10 @@
         <v>4</v>
       </c>
       <c r="AJ109" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK109" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="110" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -12529,10 +12529,10 @@
         <v>4</v>
       </c>
       <c r="AJ110" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK110" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="111" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -12624,10 +12624,10 @@
         <v>5</v>
       </c>
       <c r="AJ111" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="AK111" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="112" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -12719,10 +12719,10 @@
         <v>5</v>
       </c>
       <c r="AJ112" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK112" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="113" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -12814,10 +12814,10 @@
         <v>5</v>
       </c>
       <c r="AJ113" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK113" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="114" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -12891,10 +12891,10 @@
         <v>3</v>
       </c>
       <c r="AJ114" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK114" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="115" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -12968,10 +12968,10 @@
         <v>3</v>
       </c>
       <c r="AJ115" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK115" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="116" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -13063,10 +13063,10 @@
         <v>5</v>
       </c>
       <c r="AJ116" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="AK116" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="117" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -13149,10 +13149,10 @@
         <v>4</v>
       </c>
       <c r="AJ117" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK117" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="118" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -13226,10 +13226,10 @@
         <v>3</v>
       </c>
       <c r="AJ118" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK118" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="119" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -13303,10 +13303,10 @@
         <v>3</v>
       </c>
       <c r="AJ119" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK119" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="120" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -13380,10 +13380,10 @@
         <v>3</v>
       </c>
       <c r="AJ120" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK120" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="121" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -13457,10 +13457,10 @@
         <v>3</v>
       </c>
       <c r="AJ121" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK121" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="122" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -13543,10 +13543,10 @@
         <v>4</v>
       </c>
       <c r="AJ122" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
       <c r="AK122" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="123" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -13638,10 +13638,10 @@
         <v>5</v>
       </c>
       <c r="AJ123" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK123" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="124" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -13715,10 +13715,10 @@
         <v>3</v>
       </c>
       <c r="AJ124" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK124" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="125" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -13801,10 +13801,10 @@
         <v>4</v>
       </c>
       <c r="AJ125" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK125" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="126" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -13896,10 +13896,10 @@
         <v>5</v>
       </c>
       <c r="AJ126" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK126" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="127" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -13973,10 +13973,10 @@
         <v>3</v>
       </c>
       <c r="AJ127" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="AK127" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="128" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -14050,10 +14050,10 @@
         <v>3</v>
       </c>
       <c r="AJ128" t="s">
+        <v>993</v>
+      </c>
+      <c r="AK128" t="s">
         <v>994</v>
-      </c>
-      <c r="AK128" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="129" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -14136,10 +14136,10 @@
         <v>4</v>
       </c>
       <c r="AJ129" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK129" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="130" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -14213,10 +14213,10 @@
         <v>3</v>
       </c>
       <c r="AJ130" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK130" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="131" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -14299,10 +14299,10 @@
         <v>4</v>
       </c>
       <c r="AJ131" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK131" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="132" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -14376,10 +14376,10 @@
         <v>3</v>
       </c>
       <c r="AJ132" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
       <c r="AK132" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="133" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -14462,10 +14462,10 @@
         <v>4</v>
       </c>
       <c r="AJ133" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK133" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="134" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -14548,10 +14548,10 @@
         <v>4</v>
       </c>
       <c r="AJ134" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK134" t="s">
-        <v>991</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="135" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -14634,10 +14634,10 @@
         <v>4</v>
       </c>
       <c r="AJ135" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK135" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="136" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -14711,10 +14711,10 @@
         <v>3</v>
       </c>
       <c r="AJ136" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK136" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="137" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -14788,10 +14788,10 @@
         <v>3</v>
       </c>
       <c r="AJ137" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK137" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="138" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -14874,10 +14874,10 @@
         <v>4</v>
       </c>
       <c r="AJ138" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AK138" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="139" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -14951,10 +14951,10 @@
         <v>3</v>
       </c>
       <c r="AJ139" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK139" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="140" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -15028,10 +15028,10 @@
         <v>3</v>
       </c>
       <c r="AJ140" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK140" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="141" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -15123,10 +15123,10 @@
         <v>5</v>
       </c>
       <c r="AJ141" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK141" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="142" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -15218,10 +15218,10 @@
         <v>5</v>
       </c>
       <c r="AJ142" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK142" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="143" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -15295,10 +15295,10 @@
         <v>3</v>
       </c>
       <c r="AJ143" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK143" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="144" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -15390,10 +15390,10 @@
         <v>5</v>
       </c>
       <c r="AJ144" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK144" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="145" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -15467,10 +15467,10 @@
         <v>3</v>
       </c>
       <c r="AJ145" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK145" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="146" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -15553,10 +15553,10 @@
         <v>4</v>
       </c>
       <c r="AJ146" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK146" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="147" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -15630,10 +15630,10 @@
         <v>3</v>
       </c>
       <c r="AJ147" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AK147" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="148" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -15716,10 +15716,10 @@
         <v>4</v>
       </c>
       <c r="AJ148" t="s">
+        <v>991</v>
+      </c>
+      <c r="AK148" t="s">
         <v>992</v>
-      </c>
-      <c r="AK148" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="149" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -15811,10 +15811,10 @@
         <v>5</v>
       </c>
       <c r="AJ149" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK149" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="150" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -15888,10 +15888,10 @@
         <v>3</v>
       </c>
       <c r="AJ150" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="AK150" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="151" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -15983,10 +15983,10 @@
         <v>5</v>
       </c>
       <c r="AJ151" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AK151" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="152" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -16069,10 +16069,10 @@
         <v>4</v>
       </c>
       <c r="AJ152" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AK152" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="153" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -16155,10 +16155,10 @@
         <v>4</v>
       </c>
       <c r="AJ153" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK153" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="154" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -16232,10 +16232,10 @@
         <v>3</v>
       </c>
       <c r="AJ154" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK154" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="155" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -16327,10 +16327,10 @@
         <v>5</v>
       </c>
       <c r="AJ155" t="s">
+        <v>991</v>
+      </c>
+      <c r="AK155" t="s">
         <v>992</v>
-      </c>
-      <c r="AK155" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="156" spans="1:37" x14ac:dyDescent="0.3">
@@ -16404,10 +16404,10 @@
         <v>4</v>
       </c>
       <c r="AJ156" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK156" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="157" spans="1:37" x14ac:dyDescent="0.3">
@@ -16481,10 +16481,10 @@
         <v>4</v>
       </c>
       <c r="AJ157" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK157" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="158" spans="1:37" x14ac:dyDescent="0.3">
@@ -16558,10 +16558,10 @@
         <v>4</v>
       </c>
       <c r="AJ158" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK158" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="159" spans="1:37" x14ac:dyDescent="0.3">
@@ -16647,10 +16647,10 @@
         <v>5</v>
       </c>
       <c r="AJ159" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK159" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="160" spans="1:37" x14ac:dyDescent="0.3">
@@ -16715,10 +16715,10 @@
         <v>3</v>
       </c>
       <c r="AJ160" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK160" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="161" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -16786,10 +16786,10 @@
         <v>3</v>
       </c>
       <c r="AJ161" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK161" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="162" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -16866,10 +16866,10 @@
         <v>4</v>
       </c>
       <c r="AJ162" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK162" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="163" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -16946,10 +16946,10 @@
         <v>4</v>
       </c>
       <c r="AJ163" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK163" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="164" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -17020,10 +17020,10 @@
         <v>3</v>
       </c>
       <c r="AJ164" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AK164" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="165" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -17094,10 +17094,10 @@
         <v>3</v>
       </c>
       <c r="AJ165" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AK165" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="166" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -17174,10 +17174,10 @@
         <v>4</v>
       </c>
       <c r="AJ166" t="s">
+        <v>996</v>
+      </c>
+      <c r="AK166" t="s">
         <v>997</v>
-      </c>
-      <c r="AK166" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="167" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -17254,10 +17254,10 @@
         <v>4</v>
       </c>
       <c r="AJ167" t="s">
+        <v>996</v>
+      </c>
+      <c r="AK167" t="s">
         <v>997</v>
-      </c>
-      <c r="AK167" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="168" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -17337,10 +17337,10 @@
         <v>4</v>
       </c>
       <c r="AJ168" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK168" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="169" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -17423,10 +17423,10 @@
         <v>4</v>
       </c>
       <c r="AJ169" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK169" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="170" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -17515,10 +17515,10 @@
         <v>5</v>
       </c>
       <c r="AJ170" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK170" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="171" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -17598,10 +17598,10 @@
         <v>4</v>
       </c>
       <c r="AJ171" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK171" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="172" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -17675,10 +17675,10 @@
         <v>3</v>
       </c>
       <c r="AJ172" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AK172" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="173" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -17752,10 +17752,10 @@
         <v>3</v>
       </c>
       <c r="AJ173" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AK173" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="174" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -17838,10 +17838,10 @@
         <v>4</v>
       </c>
       <c r="AJ174" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK174" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="175" spans="1:37" ht="14.6" x14ac:dyDescent="0.35">
@@ -17933,10 +17933,10 @@
         <v>5</v>
       </c>
       <c r="AJ175" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK175" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="176" spans="1:37" x14ac:dyDescent="0.3">
@@ -18001,10 +18001,10 @@
         <v>3</v>
       </c>
       <c r="AJ176" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK176" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="177" spans="1:37" x14ac:dyDescent="0.3">
@@ -18069,10 +18069,10 @@
         <v>3</v>
       </c>
       <c r="AJ177" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK177" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="178" spans="1:37" x14ac:dyDescent="0.3">
@@ -18155,10 +18155,10 @@
         <v>5</v>
       </c>
       <c r="AJ178" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AK178" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="179" spans="1:37" x14ac:dyDescent="0.3">
@@ -18232,10 +18232,10 @@
         <v>4</v>
       </c>
       <c r="AJ179" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK179" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="180" spans="1:37" x14ac:dyDescent="0.3">
@@ -18309,10 +18309,10 @@
         <v>4</v>
       </c>
       <c r="AJ180" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK180" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="181" spans="1:37" x14ac:dyDescent="0.3">
@@ -18386,10 +18386,10 @@
         <v>4</v>
       </c>
       <c r="AJ181" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AK181" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="182" spans="1:37" x14ac:dyDescent="0.3">
@@ -18472,10 +18472,10 @@
         <v>5</v>
       </c>
       <c r="AJ182" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK182" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="183" spans="1:37" x14ac:dyDescent="0.3">
@@ -18558,10 +18558,10 @@
         <v>5</v>
       </c>
       <c r="AJ183" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK183" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="184" spans="1:37" x14ac:dyDescent="0.3">
@@ -18635,10 +18635,10 @@
         <v>4</v>
       </c>
       <c r="AJ184" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK184" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="185" spans="1:37" x14ac:dyDescent="0.3">
@@ -18712,10 +18712,10 @@
         <v>4</v>
       </c>
       <c r="AJ185" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AK185" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="186" spans="1:37" x14ac:dyDescent="0.3">
@@ -18780,10 +18780,10 @@
         <v>3</v>
       </c>
       <c r="AJ186" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AK186" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="187" spans="1:37" x14ac:dyDescent="0.3">
@@ -18863,10 +18863,10 @@
         <v>4</v>
       </c>
       <c r="AJ187" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="AK187" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="188" spans="1:37" x14ac:dyDescent="0.3">
@@ -18946,10 +18946,10 @@
         <v>4</v>
       </c>
       <c r="AJ188" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK188" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="189" spans="1:37" x14ac:dyDescent="0.3">
@@ -19029,10 +19029,10 @@
         <v>4</v>
       </c>
       <c r="AJ189" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK189" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="190" spans="1:37" x14ac:dyDescent="0.3">
@@ -19121,10 +19121,10 @@
         <v>5</v>
       </c>
       <c r="AJ190" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AK190" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="191" spans="1:37" x14ac:dyDescent="0.3">
@@ -19195,10 +19195,10 @@
         <v>3</v>
       </c>
       <c r="AJ191" t="s">
+        <v>993</v>
+      </c>
+      <c r="AK191" t="s">
         <v>994</v>
-      </c>
-      <c r="AK191" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="192" spans="1:37" x14ac:dyDescent="0.3">
@@ -19278,10 +19278,10 @@
         <v>4</v>
       </c>
       <c r="AJ192" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK192" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="193" spans="1:37" x14ac:dyDescent="0.3">
@@ -19370,10 +19370,10 @@
         <v>5</v>
       </c>
       <c r="AJ193" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK193" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="194" spans="1:37" x14ac:dyDescent="0.3">
@@ -19453,10 +19453,10 @@
         <v>4</v>
       </c>
       <c r="AJ194" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK194" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="195" spans="1:37" x14ac:dyDescent="0.3">
@@ -19527,10 +19527,10 @@
         <v>3</v>
       </c>
       <c r="AJ195" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK195" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="196" spans="1:37" x14ac:dyDescent="0.3">
@@ -19604,10 +19604,10 @@
         <v>4</v>
       </c>
       <c r="AJ196" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK196" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="197" spans="1:37" x14ac:dyDescent="0.3">
@@ -19672,10 +19672,10 @@
         <v>3</v>
       </c>
       <c r="AJ197" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK197" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="198" spans="1:37" x14ac:dyDescent="0.3">
@@ -19740,10 +19740,10 @@
         <v>3</v>
       </c>
       <c r="AJ198" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK198" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="199" spans="1:37" x14ac:dyDescent="0.3">
@@ -19826,10 +19826,10 @@
         <v>5</v>
       </c>
       <c r="AJ199" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="AK199" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="200" spans="1:37" x14ac:dyDescent="0.3">
@@ -19894,10 +19894,10 @@
         <v>3</v>
       </c>
       <c r="AJ200" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AK200" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="201" spans="1:37" x14ac:dyDescent="0.3">
@@ -19962,10 +19962,10 @@
         <v>3</v>
       </c>
       <c r="AJ201" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AK201" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="202" spans="1:37" x14ac:dyDescent="0.3">
@@ -20039,10 +20039,10 @@
         <v>4</v>
       </c>
       <c r="AJ202" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AK202" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="203" spans="1:37" x14ac:dyDescent="0.3">
@@ -20125,10 +20125,10 @@
         <v>5</v>
       </c>
       <c r="AJ203" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK203" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="204" spans="1:37" x14ac:dyDescent="0.3">
@@ -20193,10 +20193,10 @@
         <v>3</v>
       </c>
       <c r="AJ204" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK204" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="205" spans="1:37" x14ac:dyDescent="0.3">
@@ -20279,10 +20279,10 @@
         <v>5</v>
       </c>
       <c r="AJ205" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK205" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="206" spans="1:37" x14ac:dyDescent="0.3">
@@ -20365,10 +20365,10 @@
         <v>5</v>
       </c>
       <c r="AJ206" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK206" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="207" spans="1:37" x14ac:dyDescent="0.3">
@@ -20433,10 +20433,10 @@
         <v>3</v>
       </c>
       <c r="AJ207" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK207" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="208" spans="1:37" x14ac:dyDescent="0.3">
@@ -20507,10 +20507,10 @@
         <v>3</v>
       </c>
       <c r="AJ208" t="s">
+        <v>996</v>
+      </c>
+      <c r="AK208" t="s">
         <v>997</v>
-      </c>
-      <c r="AK208" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="209" spans="1:37" x14ac:dyDescent="0.3">
@@ -20581,10 +20581,10 @@
         <v>3</v>
       </c>
       <c r="AJ209" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK209" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="210" spans="1:37" x14ac:dyDescent="0.3">
@@ -20664,10 +20664,10 @@
         <v>4</v>
       </c>
       <c r="AJ210" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK210" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="211" spans="1:37" x14ac:dyDescent="0.3">
@@ -20747,10 +20747,10 @@
         <v>4</v>
       </c>
       <c r="AJ211" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="AK211" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="212" spans="1:37" x14ac:dyDescent="0.3">
@@ -20830,10 +20830,10 @@
         <v>4</v>
       </c>
       <c r="AJ212" t="s">
+        <v>993</v>
+      </c>
+      <c r="AK212" t="s">
         <v>994</v>
-      </c>
-      <c r="AK212" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="213" spans="1:37" x14ac:dyDescent="0.3">
@@ -20904,10 +20904,10 @@
         <v>3</v>
       </c>
       <c r="AJ213" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK213" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="214" spans="1:37" x14ac:dyDescent="0.3">
@@ -20978,10 +20978,10 @@
         <v>3</v>
       </c>
       <c r="AJ214" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="AK214" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="215" spans="1:37" x14ac:dyDescent="0.3">
@@ -21061,10 +21061,10 @@
         <v>4</v>
       </c>
       <c r="AJ215" t="s">
+        <v>993</v>
+      </c>
+      <c r="AK215" t="s">
         <v>994</v>
-      </c>
-      <c r="AK215" t="s">
-        <v>995</v>
       </c>
     </row>
     <row r="216" spans="1:37" x14ac:dyDescent="0.3">
@@ -21153,10 +21153,10 @@
         <v>5</v>
       </c>
       <c r="AJ216" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK216" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="217" spans="1:37" x14ac:dyDescent="0.3">
@@ -21236,10 +21236,10 @@
         <v>4</v>
       </c>
       <c r="AJ217" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK217" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="218" spans="1:37" x14ac:dyDescent="0.3">
@@ -21328,10 +21328,10 @@
         <v>5</v>
       </c>
       <c r="AJ218" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK218" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="219" spans="1:37" x14ac:dyDescent="0.3">
@@ -21411,10 +21411,10 @@
         <v>4</v>
       </c>
       <c r="AJ219" t="s">
+        <v>991</v>
+      </c>
+      <c r="AK219" t="s">
         <v>992</v>
-      </c>
-      <c r="AK219" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="220" spans="1:37" x14ac:dyDescent="0.3">
@@ -21485,10 +21485,10 @@
         <v>3</v>
       </c>
       <c r="AJ220" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="AK220" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="221" spans="1:37" x14ac:dyDescent="0.3">
@@ -21568,10 +21568,10 @@
         <v>4</v>
       </c>
       <c r="AJ221" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK221" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="222" spans="1:37" x14ac:dyDescent="0.3">
@@ -21642,10 +21642,10 @@
         <v>3</v>
       </c>
       <c r="AJ222" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK222" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="223" spans="1:37" x14ac:dyDescent="0.3">
@@ -21734,10 +21734,10 @@
         <v>5</v>
       </c>
       <c r="AJ223" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK223" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="224" spans="1:37" x14ac:dyDescent="0.3">
@@ -21808,10 +21808,10 @@
         <v>3</v>
       </c>
       <c r="AJ224" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK224" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="225" spans="1:37" x14ac:dyDescent="0.3">
@@ -21891,10 +21891,10 @@
         <v>4</v>
       </c>
       <c r="AJ225" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK225" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="226" spans="1:37" x14ac:dyDescent="0.3">
@@ -21965,10 +21965,10 @@
         <v>3</v>
       </c>
       <c r="AJ226" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK226" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="227" spans="1:37" x14ac:dyDescent="0.3">
@@ -22048,10 +22048,10 @@
         <v>4</v>
       </c>
       <c r="AJ227" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AK227" t="s">
         <v>1006</v>
-      </c>
-      <c r="AK227" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="228" spans="1:37" x14ac:dyDescent="0.3">
@@ -22122,10 +22122,10 @@
         <v>3</v>
       </c>
       <c r="AJ228" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK228" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="229" spans="1:37" x14ac:dyDescent="0.3">
@@ -22205,10 +22205,10 @@
         <v>4</v>
       </c>
       <c r="AJ229" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK229" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="230" spans="1:37" x14ac:dyDescent="0.3">
@@ -22279,10 +22279,10 @@
         <v>3</v>
       </c>
       <c r="AJ230" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="AK230" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="231" spans="1:37" x14ac:dyDescent="0.3">
@@ -22371,10 +22371,10 @@
         <v>5</v>
       </c>
       <c r="AJ231" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK231" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="232" spans="1:37" x14ac:dyDescent="0.3">
@@ -22445,10 +22445,10 @@
         <v>3</v>
       </c>
       <c r="AJ232" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="AK232" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="233" spans="1:37" x14ac:dyDescent="0.3">
@@ -22528,10 +22528,10 @@
         <v>4</v>
       </c>
       <c r="AJ233" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK233" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="234" spans="1:37" x14ac:dyDescent="0.3">
@@ -22602,10 +22602,10 @@
         <v>3</v>
       </c>
       <c r="AJ234" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="AK234" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="235" spans="1:37" x14ac:dyDescent="0.3">
@@ -22685,10 +22685,10 @@
         <v>4</v>
       </c>
       <c r="AJ235" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="AK235" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
   </sheetData>
